--- a/data/trans_dic/P1429-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03981990367298196</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05492533866118395</v>
+        <v>0.05492533866118394</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02496766484864542</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00561282503163671</v>
+        <v>0.005778872912493513</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005337206655199501</v>
+        <v>0.005060256326152434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02351808378490197</v>
+        <v>0.02424279773776133</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01615842024050808</v>
+        <v>0.01610563329757976</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02595726076140872</v>
+        <v>0.02613543623998346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04338231698180044</v>
+        <v>0.04397350552670437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01750574869146215</v>
+        <v>0.01821509727328016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009066155297809752</v>
+        <v>0.009541159094686242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01367002829095286</v>
+        <v>0.01440442510536463</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02682741331476159</v>
+        <v>0.02685397574018497</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0258447713750565</v>
+        <v>0.02745003761021158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01052150629331642</v>
+        <v>0.01031617929139838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01018978574772443</v>
+        <v>0.01011783822716532</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01780812537695346</v>
+        <v>0.01818065048835152</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05407065230807049</v>
+        <v>0.05437425985399205</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0418741448534236</v>
+        <v>0.04129715405962849</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05689799673652611</v>
+        <v>0.05821773671375736</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07086012044690196</v>
+        <v>0.07161914355340669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03380204797012486</v>
+        <v>0.03575626303821218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02205552013160204</v>
+        <v>0.02327676107944989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02989817876813585</v>
+        <v>0.03082334955048774</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04240127418686133</v>
+        <v>0.04249869715846308</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.003760595978274109</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.008200244966054005</v>
+        <v>0.008200244966054003</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03781011159413105</v>
@@ -821,7 +821,7 @@
         <v>0.03411738423551211</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04240895544644958</v>
+        <v>0.04240895544644959</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02546360428709787</v>
@@ -833,7 +833,7 @@
         <v>0.01908951419583893</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02544789191652505</v>
+        <v>0.02544789191652506</v>
       </c>
     </row>
     <row r="8">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00749561677608756</v>
+        <v>0.00656133422098068</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.0008980040176337792</v>
+        <v>0.0008921419334332867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004072028890610951</v>
+        <v>0.004208943507090094</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02679257214823069</v>
+        <v>0.02694074103090197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02526788984893229</v>
+        <v>0.02494243703412427</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02379783815533434</v>
+        <v>0.02320611017121974</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03360409158825429</v>
+        <v>0.03350719145312298</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01907749156749318</v>
+        <v>0.01891317655112094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01262907001857422</v>
+        <v>0.01274812112176361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01296872713366191</v>
+        <v>0.01354219056696278</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.020561131663868</v>
+        <v>0.02023151982460139</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02307766354979497</v>
+        <v>0.02178651922549962</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.008868082703357375</v>
+        <v>0.009240330881329419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01497418279049146</v>
+        <v>0.01431361864489374</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05229213975191041</v>
+        <v>0.05177645602601923</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04893092954676881</v>
+        <v>0.04880789964970834</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04956791054803787</v>
+        <v>0.04803850369702154</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05291051586052597</v>
+        <v>0.05313809218862307</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03433624836395851</v>
+        <v>0.03257176655588588</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0249016615878846</v>
+        <v>0.02508539845966095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02629211524187403</v>
+        <v>0.02713318079731636</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03110594158017792</v>
+        <v>0.03074692340181364</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.03930000032869109</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04488012574927528</v>
+        <v>0.0448801257492753</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03069294026274524</v>
@@ -965,7 +965,7 @@
         <v>0.02142311431679594</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0255470209580174</v>
+        <v>0.02554702095801739</v>
       </c>
     </row>
     <row r="11">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001089806469731948</v>
+        <v>0.00111590717024797</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002256765596187624</v>
+        <v>0.002211456798814368</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04106524698108457</v>
+        <v>0.04086960601107433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02138235876239334</v>
+        <v>0.02205085825966293</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02575431192978361</v>
+        <v>0.02607646790863807</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03351321159268507</v>
+        <v>0.03460365552365651</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02223724441976024</v>
+        <v>0.02242620713377439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01304527731064268</v>
+        <v>0.01207736834453804</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01469323252832247</v>
+        <v>0.01500809594146492</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01988836464523263</v>
+        <v>0.01984234711879027</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01106563771455934</v>
+        <v>0.0130522379024082</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01472266081999255</v>
+        <v>0.01567728744288893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01007022595071144</v>
+        <v>0.01104352531843051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01346683201887662</v>
+        <v>0.01333473893565569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07684421049552149</v>
+        <v>0.076824260851089</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04841800968189724</v>
+        <v>0.04972387131580536</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05458262257983359</v>
+        <v>0.05613145692482673</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05704861284021496</v>
+        <v>0.05898883913774047</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0407596858339024</v>
+        <v>0.04140100376854419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02835570249795231</v>
+        <v>0.0281786323093332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03081580157392932</v>
+        <v>0.03051839154172743</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0328018351553068</v>
+        <v>0.03327174525566585</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.02772453228285683</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04945973339220944</v>
+        <v>0.04945973339220945</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02707893556711376</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005045198317716442</v>
+        <v>0.005126577947529858</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001190706145716272</v>
+        <v>0.001070068342792785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003541415486842172</v>
+        <v>0.004017619516350749</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03195802735973435</v>
+        <v>0.03120029090370244</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04452623785781939</v>
+        <v>0.04282491973567026</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01815651575557293</v>
+        <v>0.01730193034806584</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03994370451194603</v>
+        <v>0.03992018524610318</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02104469092354594</v>
+        <v>0.02077896641362259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02356753963523</v>
+        <v>0.02401741403709779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01120359275369166</v>
+        <v>0.01091091683239007</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02484664549645113</v>
+        <v>0.02504705695560361</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01719061637892822</v>
+        <v>0.01793571928673508</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.007583441378790294</v>
+        <v>0.006449862434568022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01101395234105657</v>
+        <v>0.009157001203722951</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02309891502746632</v>
+        <v>0.02408474172060067</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05656936016702444</v>
+        <v>0.05645393459555366</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07441062717670337</v>
+        <v>0.07280764307462292</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04045791365597314</v>
+        <v>0.03929357834332451</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05965360363182169</v>
+        <v>0.06069702229146864</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03553827053840558</v>
+        <v>0.03480627772683309</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03987986913401363</v>
+        <v>0.04029157140333395</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02316982500747614</v>
+        <v>0.02340703214713017</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03775993388607225</v>
+        <v>0.03866537682985004</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.03446511985398436</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02691172583257259</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3895</v>
+        <v>4011</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1605,31 +1605,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3686</v>
+        <v>3495</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16189</v>
+        <v>16688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11263</v>
+        <v>11226</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17465</v>
+        <v>17585</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31760</v>
+        <v>32193</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24199</v>
+        <v>25180</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12697</v>
+        <v>13363</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18422</v>
+        <v>19412</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>38170</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17937</v>
+        <v>19051</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7402</v>
+        <v>7257</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6876</v>
+        <v>6828</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12300</v>
+        <v>12558</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37220</v>
+        <v>37429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29188</v>
+        <v>28786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38283</v>
+        <v>39171</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51877</v>
+        <v>52433</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46727</v>
+        <v>49428</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30889</v>
+        <v>32600</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40292</v>
+        <v>41539</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60329</v>
+        <v>60468</v>
       </c>
     </row>
     <row r="8">
@@ -1776,38 +1776,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7209</v>
+        <v>6311</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4266</v>
+        <v>4409</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25946</v>
+        <v>26089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26000</v>
+        <v>25665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24819</v>
+        <v>24202</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35796</v>
+        <v>35692</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>36823</v>
+        <v>36506</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25851</v>
+        <v>26094</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26785</v>
+        <v>27969</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43440</v>
+        <v>42744</v>
       </c>
     </row>
     <row r="11">
@@ -1818,38 +1818,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22196</v>
+        <v>20954</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>9067</v>
+        <v>9448</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15686</v>
+        <v>14994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50639</v>
+        <v>50140</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50349</v>
+        <v>50222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51695</v>
+        <v>50100</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56361</v>
+        <v>56604</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66276</v>
+        <v>62870</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>50972</v>
+        <v>51348</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54302</v>
+        <v>56039</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65719</v>
+        <v>64960</v>
       </c>
     </row>
     <row r="12">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -1961,31 +1961,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1804</v>
+        <v>1767</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28082</v>
+        <v>27948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16594</v>
+        <v>17113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20217</v>
+        <v>20470</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27061</v>
+        <v>27942</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30295</v>
+        <v>30552</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19994</v>
+        <v>18511</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22695</v>
+        <v>23181</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31954</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7508</v>
+        <v>8856</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11139</v>
+        <v>11862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7649</v>
+        <v>8388</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10763</v>
+        <v>10657</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52549</v>
+        <v>52536</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37576</v>
+        <v>38589</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42848</v>
+        <v>44064</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46065</v>
+        <v>47632</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55529</v>
+        <v>56403</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43460</v>
+        <v>43189</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47597</v>
+        <v>47138</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52702</v>
+        <v>53457</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4754</v>
+        <v>4830</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1116</v>
+        <v>1003</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3498</v>
+        <v>3969</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33192</v>
+        <v>32405</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46837</v>
+        <v>45048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18951</v>
+        <v>18059</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44537</v>
+        <v>44511</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>41686</v>
+        <v>41160</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47127</v>
+        <v>48026</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>22198</v>
+        <v>21618</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>52249</v>
+        <v>52670</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16197</v>
+        <v>16899</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7187</v>
+        <v>6113</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10326</v>
+        <v>8585</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22818</v>
+        <v>23792</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58754</v>
+        <v>58634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>78273</v>
+        <v>76586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42229</v>
+        <v>41014</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66514</v>
+        <v>67677</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>70395</v>
+        <v>68945</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>79745</v>
+        <v>80569</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45907</v>
+        <v>46377</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>79404</v>
+        <v>81308</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
     </row>
     <row r="24">
